--- a/Bulk_Returns_Analysis_Project.xlsx
+++ b/Bulk_Returns_Analysis_Project.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13060e3ff92ecb3a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C476E06-AF4C-456C-A3B4-1433700114FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{6C476E06-AF4C-456C-A3B4-1433700114FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8379B0D-62BF-4B98-8772-66CFB1DEC279}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{5937EF51-48A5-40B3-99DC-8DFBD8F8C9BF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="4" xr2:uid="{5937EF51-48A5-40B3-99DC-8DFBD8F8C9BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Returns Data" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemCategories" sheetId="4" r:id="rId2"/>
+    <sheet name="Pivot - Defects by Type" sheetId="2" r:id="rId3"/>
+    <sheet name="Chart - Defects by Type" sheetId="5" r:id="rId4"/>
+    <sheet name="Pivot - Resolution by Item" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -114,13 +116,39 @@
     <t>Minutes
 Per Item</t>
   </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Item Category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -148,17 +176,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,8 +224,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Bulk_Returns_Analysis_Project.xlsx]Sheet2!PivotTable1</c:name>
-    <c:fmtId val="1"/>
+    <c:name>[Bulk_Returns_Analysis_Project.xlsx]Pivot - Defects by Type!PivotTable1</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -307,6 +341,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -319,7 +409,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
+              <c:f>'Pivot - Defects by Type'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -340,7 +430,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$9</c:f>
+              <c:f>'Pivot - Defects by Type'!$A$4:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -363,7 +453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$9</c:f>
+              <c:f>'Pivot - Defects by Type'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -387,7 +477,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-129C-4C91-8529-17078580A148}"/>
+              <c16:uniqueId val="{00000000-24A4-435E-82AD-C22D1819532B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,11 +676,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -1153,31 +1238,36 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9C9E6296-B56B-47AB-B8E2-2922520D3E2A}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234315</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665427" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A15542F-CB88-BB13-0AD1-09EF7EFFE594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19807684-C186-DCF0-164E-516B36982F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1190,14 +1280,18 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jael Medel" refreshedDate="45867.901385300924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{14F5B5B3-7146-4CA9-8328-21B94EF7965D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E20" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F20" sheet="Returns Data"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Date" numFmtId="14">
@@ -1377,7 +1471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEF44129-8B47-42D6-8CD7-23BE8F8375C6}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEF44129-8B47-42D6-8CD7-23BE8F8375C6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1425,7 +1519,7 @@
     <dataField name="Sum of Item _x000a_Count" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="4" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1448,7 +1542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A706535-D8F4-4829-8D99-53522F1715FA}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A706535-D8F4-4829-8D99-53522F1715FA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1831,11 +1925,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49356C-8290-447C-985C-9AC356E188B9}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.3125" customWidth="1"/>
+    <col min="4" max="4" width="18.89453125" customWidth="1"/>
+    <col min="6" max="6" width="11.89453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Electronics</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="0">F3/E3</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Exercise</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>45858</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Outdoor</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Tools</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Electronics</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Tools</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Outdoor</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Exercise</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(B16, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Exercise</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Outdoor</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Tools</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20, ItemCategories!A:B, 2, FALSE)</f>
+        <v>Electronics</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8AA261-1FF4-4D80-9B25-B0B665E937CD}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C4949C-894A-4EF9-AC82-C0BE633B819F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1845,7 +2550,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1853,65 +2558,67 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A3B72-644C-4CC9-B8DC-F0D9B3ACE790}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1921,7 +2628,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1929,507 +2636,67 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>480</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49356C-8290-447C-985C-9AC356E188B9}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="8.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3125" customWidth="1"/>
-    <col min="3" max="3" width="18.89453125" customWidth="1"/>
-    <col min="5" max="5" width="11.89453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <f>E2/D2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">E3/D3</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>45860</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>45860</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>45860</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>45861</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>45861</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>45861</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>45862</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>45862</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>45862</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>45863</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>45864</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>10</v>
       </c>
     </row>
   </sheetData>
